--- a/data/395_D_features_case.xlsx
+++ b/data/395_D_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6014,6 +6014,5494 @@
         <v>0.993</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.000096638573558</v>
+      </c>
+      <c r="B100" t="n">
+        <v>44.28495426906955</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.459306926368642e-05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.188373876307508</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.71525950102769e-07</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.260908151046611e-05</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.092907541021674e-07</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0001875389836787543</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.001196333604172002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.781407954689499e-05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4.960401976003085e-05</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0008921802225471085</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-4.072913534293021e-06</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-2.878818770008377e-05</v>
+      </c>
+      <c r="O100" t="n">
+        <v>7.071558977509092e-05</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.0001990839194391977</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4750.22753253488</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.000094005847953</v>
+      </c>
+      <c r="B101" t="n">
+        <v>44.28083096038935</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.730596370430932e-05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.1900147226840704</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.866908801325825e-07</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.0001130490597729274</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.683577102797853e-07</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0001891237134225935</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.005204707452653581</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.796412634756154e-05</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0001224506289245444</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0008904254346946706</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-1.053074138333716e-05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-2.70019283164695e-05</v>
+      </c>
+      <c r="O101" t="n">
+        <v>8.707612520561719e-05</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0001944912578112379</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4750.047473821814</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1.021</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.000091264619883</v>
+      </c>
+      <c r="B102" t="n">
+        <v>44.2683342610111</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3.912514689880885e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.1915059902661519</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.51561951090901e-07</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.0002074270869106088</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.308125782400742e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.000197740180030079</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.009384977521429557</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9.379229030032482e-05</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0001947965753045867</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0009632366902527742</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-1.618142143430449e-05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-2.527367330657704e-05</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.0001004787251627262</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.0001983786822105223</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4749.508600832392</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.035</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.000087118449719</v>
+      </c>
+      <c r="B103" t="n">
+        <v>44.24785036756742</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-3.807242660356744e-05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.1927111117003656</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.942463882102252e-07</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.0003001803818797557</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.406892910596406e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0001944104283165236</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.013486928473669</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9.966555056273798e-05</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0002653918083745859</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0008863668506892686</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-2.086168950996852e-05</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-2.329245328353973e-05</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.0001047218489975267</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.0001969084232947077</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4748.630234748808</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.0489</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.000080532765738</v>
+      </c>
+      <c r="B104" t="n">
+        <v>44.21963164424314</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.282058673747344e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.1934597664481647</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.852420723784543e-07</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.0003872219957804581</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.161438378855637e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0001980072852644797</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.01732689943488737</v>
+      </c>
+      <c r="J104" t="n">
+        <v>8.900231646186093e-05</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0003338871867225184</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0008876467604536939</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-2.555179345066506e-05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-2.061777325155914e-05</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.0001202048519436744</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.0002024648977275152</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4747.427483341096</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.0629</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.000072116729733</v>
+      </c>
+      <c r="B105" t="n">
+        <v>44.18386253169234</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-7.806795137694951e-06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.1934870410423754</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.905615852900756e-07</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.0004610827283509345</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6.168570200077401e-07</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0001978166112876541</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.02057458605228113</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.353533340413937e-05</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.000400363433005421</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0008872973810820625</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-3.045368770022686e-05</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-1.697119388105021e-05</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0001413827882317506</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.0002057129299773853</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4745.908622330887</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.0768</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.00006043200321</v>
+      </c>
+      <c r="B106" t="n">
+        <v>44.14090098612544</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-3.102071832517554e-06</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.1926170039331148</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6.138948118554353e-07</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.0005397395854528724</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2.089433737329259e-08</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0001938117778549542</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.02402622952608008</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.278297492196354e-05</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.000465058827503854</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0008887421742218654</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-3.598416497317936e-05</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-1.239959707368556e-05</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.0001672377262970774</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0002063926683373307</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4744.092539430576</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.0908</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.000044564700149</v>
+      </c>
+      <c r="B107" t="n">
+        <v>44.09128245677737</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.401877200949322e-05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.1907627490138355</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6.942717970644708e-07</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.0006148753272397805</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-4.133182646324247e-07</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0001968311178982003</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.02732449185799882</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.2770472624918e-05</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0005278281034523149</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0009737815559345897</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-4.2518573719694e-05</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-7.319810722366349e-06</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.0001884830208121984</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0002136495591904518</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4742.003309140717</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.1047</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.000037191979131</v>
+      </c>
+      <c r="B108" t="n">
+        <v>44.0359994075603</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.879034992562629e-05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.1879982499629303</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.350771822511323e-07</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.0006893256643742118</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-5.314506524194476e-07</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0001876057182454787</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.03056135734983565</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.697870025099071e-06</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0005874541667646103</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0008972468640788837</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-4.938369604526445e-05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-1.898218368886086e-06</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.0001996031626746502</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.000213620699950122</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4739.659108815169</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.1185</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.000029868421053</v>
+      </c>
+      <c r="B109" t="n">
+        <v>43.97497328447298</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-3.594056489412491e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.1845257034012808</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.32978388798733e-07</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.0007554919729675497</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.851045968223224e-07</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0001860178704930882</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.03343577971913262</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.663767889520345e-05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0006442317846290564</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0008997584105360305</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-5.543358900929589e-05</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.487882357795359e-06</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.0002070487035719416</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.0002208451001873782</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4737.075388877687</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.1324</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.000024441004472</v>
+      </c>
+      <c r="B110" t="n">
+        <v>43.90818339194027</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-3.953993833315871e-05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.1804851157725923</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.55969898615841e-07</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.0008117190217578259</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3.148579846491373e-09</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0001822092560159513</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.0358791221779485</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.162251727582844e-05</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0006980813816267247</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0008988315678789384</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-6.033239382277134e-05</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.217272691068972e-05</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.0002122824677230503</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.0002266753918211875</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4734.249078875462</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.1462</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.000018512355234</v>
+      </c>
+      <c r="B111" t="n">
+        <v>43.83563096421155</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-4.117207826494701e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.1760415654024768</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.98469899505289e-07</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.0008826462223368879</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2.517457015809554e-07</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0001756684613115356</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.03897007141924346</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8.639474760157445e-06</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0007496161290117085</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0008979773828498262</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-6.421321367536374e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.080329016342258e-05</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.0002250868879175672</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.000230235731210719</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4731.185417461556</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.000010269249513</v>
+      </c>
+      <c r="B112" t="n">
+        <v>43.75734204793029</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-3.97778986721871e-05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.1713851390282397</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.801529865332172e-07</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.000964204312865497</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-8.233432578111747e-07</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0001762542172305566</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.04252812846784262</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-1.702346727866725e-05</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0007994024519757544</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0009918963839598543</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-6.75039817696365e-05</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2.918791619973579e-05</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0002500481334778202</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.000239967535875047</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4727.888801953231</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.1738</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9999995460669646</v>
+      </c>
+      <c r="B113" t="n">
+        <v>43.67464744263527</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-2.98443091070088e-05</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.1668328633550561</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.330976285136451e-07</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.00104729397746818</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-9.52720445933665e-07</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0001661040351631893</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.04610568234880046</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-2.399053306763519e-05</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0008480380021404272</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0009020604524917504</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-7.148222973062946e-05</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.718798941545551e-05</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0002633255270135624</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.0002394006349080094</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4724.41630858166</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.1874</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9999750935959179</v>
+      </c>
+      <c r="B114" t="n">
+        <v>43.5865628941635</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.088231078638456e-05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.1624690704420994</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.509367190686274e-07</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.001127623809196193</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3.709968824317731e-07</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0001682105839289582</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.04951518698480042</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-7.731630617029393e-07</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0008946179927282802</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0009050824105527527</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-7.563408069833033e-05</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4.336439329802935e-05</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.0002814799438186322</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0002491159607612054</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>4720.750393393024</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.201</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9999514040821006</v>
+      </c>
+      <c r="B115" t="n">
+        <v>43.49294686994355</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.512579156792854e-06</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.1582856669178058</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.85243453081384e-07</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.001194907175639262</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.308455312822514e-07</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.000170165083139717</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.05233292916045561</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.6298585359732e-05</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0009412188655416682</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0009041608626686543</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-7.995741050020465e-05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4.865010069751494e-05</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.0002990842885890268</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.0002566276968300964</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4716.86061277919</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.2147</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9999369884474257</v>
+      </c>
+      <c r="B116" t="n">
+        <v>43.39377694645109</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.273994312738127e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.1542466404147715</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.289598420321638e-07</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.001267566595143905</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.648734169805637e-07</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.000170579909143544</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.05537148906216158</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.063439700634807e-05</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.000987925084327103</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.0008986989503451119</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-8.444743348048691e-05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>5.348204133466154e-05</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.0003188552045516808</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.0002605400424810841</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4712.731491365921</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.2283</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9999242906490085</v>
+      </c>
+      <c r="B117" t="n">
+        <v>43.28914609451643</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.920604957740864e-05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.1502881829189611</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.156703681257525e-07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.001334496710597982</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7.579498836239031e-07</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0001811614877405078</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.05815675544104906</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.591344694495409e-05</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.001031818952257641</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.001007872931557288</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-8.896138232492143e-05</v>
+      </c>
+      <c r="N117" t="n">
+        <v>5.763812065534939e-05</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.0003438161681391979</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.0002732137274483291</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>4708.381140911466</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.2419</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9999078568971449</v>
+      </c>
+      <c r="B118" t="n">
+        <v>43.18175440189071</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.943849151632706e-05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.1463056768358942</v>
+      </c>
+      <c r="E118" t="n">
+        <v>8.908908488688224e-07</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.001403827187249169</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3.892165002293327e-07</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.000180229187475952</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.06100896518142669</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.53899390295934e-05</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.001072774417912064</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.0008922499927593356</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-9.332823392242939e-05</v>
+      </c>
+      <c r="N118" t="n">
+        <v>6.116056302681983e-05</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.0003668804545524075</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.0002734164894841156</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>4703.931592170329</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.2552</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9998890229044834</v>
+      </c>
+      <c r="B119" t="n">
+        <v>43.06976024506618</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-3.219994876670153e-06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.1420884376578063</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.17725881789359e-07</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.001468187775627795</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-5.477151391755455e-08</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0001917570012349581</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.06362319878422454</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-6.894583747483684e-06</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.001110211689536113</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.0008920807815418403</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-9.654333015619467e-05</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6.316503086031721e-05</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.0003847798970677659</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.0002849156774942691</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>4699.303565049365</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.2685</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.99986916165004</v>
+      </c>
+      <c r="B120" t="n">
+        <v>42.95326538591396</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.641576095854221e-05</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.1373322888913342</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.585153189885047e-07</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.001521405750057333</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5.599307610036119e-07</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0002017806045645887</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.06573105839671801</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-3.338635893317857e-05</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.00114700938881563</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.0008864562654758946</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.0001002256703949749</v>
+      </c>
+      <c r="N120" t="n">
+        <v>6.396050993851049e-05</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.000395115642268837</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.0002912389922018325</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4694.501243715677</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.2818</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9998485689714482</v>
+      </c>
+      <c r="B121" t="n">
+        <v>42.83232395622316</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-3.773215515072157e-05</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.1317850856810286</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.011419045990297e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.001586837191119138</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1.04469805293831e-06</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0002091201376941833</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.06834948542152404</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-6.13360737507009e-05</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.001183520313754157</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.0008759091824809048</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.0001045335678366491</v>
+      </c>
+      <c r="N121" t="n">
+        <v>6.361578727597975e-05</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.0003998669623250789</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.0002917632228672816</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>4689.52762512601</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.2952</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9998266643733519</v>
+      </c>
+      <c r="B122" t="n">
+        <v>42.70691401422492</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-2.48727736713108e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.125246758934292</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.110569240230549e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.001655297818269121</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1.342441113236727e-06</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0002280903623983703</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.07112208680913884</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-8.21882456439358e-05</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.001216536525938348</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.001004822068841972</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-0.0001081072190129445</v>
+      </c>
+      <c r="N122" t="n">
+        <v>6.199902784642951e-05</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.0003958234635269608</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.0003045049336228483</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>4684.383733942926</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.3085</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9998049656002752</v>
+      </c>
+      <c r="B123" t="n">
+        <v>42.58047809247156</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-4.768598000994683e-06</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.1180080479819099</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.103962313267773e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.001729519017314528</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1.828595048930742e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0002321589652376065</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.07409285317050797</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.0001100486545399674</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.00124900922995579</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.0008609797846116971</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-0.0001113583268448453</v>
+      </c>
+      <c r="N123" t="n">
+        <v>6.103522131976456e-05</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.0003708421545663326</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.0003029785211245294</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>4679.207967407953</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.3215</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9997819900240797</v>
+      </c>
+      <c r="B124" t="n">
+        <v>42.4498267113863</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.632143875256307e-06</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.1102840575070734</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.14723894065788e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.001802448116615067</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1.917083764783283e-06</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.000248749122578331</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.07700333899495469</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.0001190831037369091</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.001280242504522927</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.0008564743112273694</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.0001143276791411097</v>
+      </c>
+      <c r="N124" t="n">
+        <v>6.05889331586512e-05</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.0003348002824910346</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.0003186335133359133</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4673.870563089087</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.3344</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.99975826625387</v>
+      </c>
+      <c r="B125" t="n">
+        <v>42.31487914707793</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.299927745130389e-06</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.1025401674989972</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.204066036235538e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.001862933850762527</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1.70450477703245e-06</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0002611653738769922</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.07936376982761915</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.0001138772606974943</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.001313773923734536</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.0008435857243560402</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-0.0001157307519780957</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6.12354486758869e-05</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.0003008048095447929</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.0003303900637619683</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>4668.368714919689</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.3474</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9997337550166264</v>
+      </c>
+      <c r="B126" t="n">
+        <v>42.17569762960414</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.445416329040117e-06</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.09518194066443385</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.269918098033053e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.001932362037037037</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1.313925899739136e-06</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0002678216947976229</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.08208602717419002</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-9.964991342425359e-05</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.001349449832938374</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.0008288021771580173</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.0001144529355161806</v>
+      </c>
+      <c r="N126" t="n">
+        <v>6.290534744867273e-05</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.0002782331821687569</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.000335569922597434</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>4662.706789155293</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.3603</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9997079096433894</v>
+      </c>
+      <c r="B127" t="n">
+        <v>42.03249875380627</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.036702900008305e-05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.08855518886606285</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.373464476089468e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.001995196835225318</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-8.663522602955527e-07</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0002856876221481194</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.08454102645752908</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-8.094439505866273e-05</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.00138239361168444</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.0009966347695126666</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-0.0001099537898468933</v>
+      </c>
+      <c r="N127" t="n">
+        <v>6.490261146876075e-05</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.0002611775761521913</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.000353227562291804</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>4656.896902134774</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.3733</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9996827982742805</v>
+      </c>
+      <c r="B128" t="n">
+        <v>41.89048998904305</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-3.888657683560795e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.0828308186797736</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.390687992951926e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.002061907860337117</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-8.025438647488827e-07</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.000289793701266754</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.0870844309712189</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-8.024848587351407e-05</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.001414191530023315</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.000809403730935537</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.0001074343067359837</v>
+      </c>
+      <c r="N128" t="n">
+        <v>6.820723367097403e-05</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.0002672367436463501</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.0003537676466624305</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>4651.14865241068</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.3859</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9996565246244696</v>
+      </c>
+      <c r="B129" t="n">
+        <v>41.74540226974481</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-6.965408661086326e-05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.07765764704061318</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.453612182611226e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.002124018359419791</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5.684174679122224e-07</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0003102942080968193</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.08942286450967651</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-6.896695445165885e-05</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.00144423268069411</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.0008023502001926224</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.0001073210796920747</v>
+      </c>
+      <c r="N129" t="n">
+        <v>7.080372028686822e-05</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.0002768944053428856</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.000370864881353462</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>4645.295116300009</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.3984</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9996295163972022</v>
+      </c>
+      <c r="B130" t="n">
+        <v>41.59725186013327</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-8.862774993390675e-05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.07267933702423349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.533440661542541e-06</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.002171659092993922</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-5.606143057476215e-07</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.000327313419116795</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.09112486693995335</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-6.606377246402363e-05</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.00147757142641007</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.0007876918910227467</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.0001095441370062987</v>
+      </c>
+      <c r="N130" t="n">
+        <v>7.326425180844609e-05</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.0002935493640598364</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.0003785581413147408</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>4639.339299579508</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.4109</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9996019058880863</v>
+      </c>
+      <c r="B131" t="n">
+        <v>41.44592798035394</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-8.967447625304168e-05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.06759754606250079</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.619541713535145e-06</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.002231884895654168</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-9.203429676355923e-07</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0003386147978366555</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.09333300072303126</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-7.854744267445115e-05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.001514491333180445</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.0007674672288552775</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.0001116528649708319</v>
+      </c>
+      <c r="N131" t="n">
+        <v>7.568433193709469e-05</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.0003198899751573708</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.0003756338388901948</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>4633.278004196496</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.4235</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9995732876103659</v>
+      </c>
+      <c r="B132" t="n">
+        <v>41.2912165398973</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-7.451321774269356e-05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.06217200102597299</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.722402401151889e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.002293607736354776</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1.541424640203247e-06</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0003638364712455274</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.09564207755226845</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.0001021323421960004</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.001549191529227025</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.0009609445399964485</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-0.0001094597860333626</v>
+      </c>
+      <c r="N132" t="n">
+        <v>7.784611346036786e-05</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.0003470936296401169</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.0003897534640565795</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>4627.102587113325</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.436</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9995454778695104</v>
+      </c>
+      <c r="B133" t="n">
+        <v>41.13896793658984</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-5.840796430869266e-05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.05652098163457937</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.754636602901903e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.002362766324102741</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1.929800794991975e-06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0003736811642441935</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.09812952746563212</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.0001178297952729044</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.001584251770152505</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.0007451608944367762</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-0.0001018094135176107</v>
+      </c>
+      <c r="N133" t="n">
+        <v>7.75207648153563e-05</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.0003501083561563642</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.0003835359509112343</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>4621.043532124334</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1.4481</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9995164771815159</v>
+      </c>
+      <c r="B134" t="n">
+        <v>40.98355598395953</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-4.427973155473967e-05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.05038603630695623</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.835540430209838e-06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.002436206726579521</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1.374635592264362e-06</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0004063654169191375</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.1007840117723503</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-9.367042757265346e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.001615213607957803</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.0007393406250729641</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-8.91798129114032e-05</v>
+      </c>
+      <c r="N134" t="n">
+        <v>7.523333127552268e-05</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.0003368401890716294</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.0003954521387458434</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>4614.880750246683</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.4602</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9994866828632037</v>
+      </c>
+      <c r="B135" t="n">
+        <v>40.82509238555721</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-3.966790328103293e-05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.04367447910013027</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.937594186409959e-06</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.00249804503210641</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-5.109999006464284e-07</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0004364518394352631</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.1029407936143918</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-5.548552275541801e-05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.001649435900253539</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0007225627566498649</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-7.194609922726354e-05</v>
+      </c>
+      <c r="N135" t="n">
+        <v>7.113351055540425e-05</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.0003117073423815678</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.0003968546750499728</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>4608.621590230877</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.4722</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9994561799105607</v>
+      </c>
+      <c r="B136" t="n">
+        <v>40.66360726503076</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-4.146080708602528e-05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.03643533943950744</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.043219442214195e-06</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.002570540997305355</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.720891008356285e-07</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0004609512894242186</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.1055168036285339</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-1.949926771123975e-05</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.001688861538718801</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0007011143171019759</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-5.071181610557689e-05</v>
+      </c>
+      <c r="N136" t="n">
+        <v>6.583242588372174e-05</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.0002752224841138408</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.0003856031818084858</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>4602.267904808947</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.4843</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9994244523277146</v>
+      </c>
+      <c r="B137" t="n">
+        <v>40.49905113694275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-3.57396445716118e-05</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.02885987257478357</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.149746588950608e-06</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.002634421623810343</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7.859469323644067e-07</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0005043865228994389</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.1077730814588669</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5.702170917739987e-06</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.001728177304701933</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0009447123808236742</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-2.696189882939361e-05</v>
+      </c>
+      <c r="N137" t="n">
+        <v>6.047907267786369e-05</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0002253564190968153</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.0003914296531216516</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>4595.816373652689</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.4964</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9993939880747622</v>
+      </c>
+      <c r="B138" t="n">
+        <v>40.3383756959574</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-3.925212703372138e-06</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.02173619939138606</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.222415710640839e-06</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.002682532977869511</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.978678395363227e-07</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0005297258303415207</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.1092528022238785</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.434129820022557e-06</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.001766185358776389</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0006859455642633872</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-3.389531155472424e-06</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5.380350718385696e-05</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0001351840027985609</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.000373005927332795</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>4589.535855488942</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.5079</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9993626884818256</v>
+      </c>
+      <c r="B139" t="n">
+        <v>40.17452221011861</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.447454413994289e-05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.01510053465543898</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.312019956748223e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.002729402644478844</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1.506254262699244e-08</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0005742685361825224</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.1106656637395049</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-2.192137077329318e-05</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.001795163100880378</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0006847205766253792</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.655518448117729e-05</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4.677272425400375e-05</v>
+      </c>
+      <c r="O139" t="n">
+        <v>5.069325536368949e-05</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0003791226628398724</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>4583.154692589525</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.5195</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9993309604689828</v>
+      </c>
+      <c r="B140" t="n">
+        <v>40.00704443457045</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.933529248365889e-05</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.009458799188285938</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.415808673426356e-06</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.002767020581068685</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-6.016902135649591e-07</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0006060031597058904</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.111677764081591</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-4.796423071951172e-05</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.001821006684057639</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.0006687461966525485</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3.516565035043605e-05</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3.785694830742205e-05</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-2.498193322069015e-05</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.0003714794823188361</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>4576.659674081898</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.531</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9992986836371974</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39.83580617188396</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.006606626087647e-05</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.005175801469392209</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.522013279341962e-06</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.002828908687363834</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-9.010698835870332e-07</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0006225956244615169</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.1136483156875486</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-6.429367882561573e-05</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.001844669386793053</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.0006474777681356861</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5.348771307594058e-05</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2.709620301471385e-05</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-8.066835766055584e-05</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.0003497716199498735</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>4570.049143698865</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.5426</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.999265369295379</v>
+      </c>
+      <c r="B142" t="n">
+        <v>39.6609811167807</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.591495338598368e-05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.00247538603589675</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.615107767611441e-06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.002903296750659328</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-9.332166673044926e-07</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0006562023028198544</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.1161627513887296</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-6.574543237173356e-05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.001860615395150913</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.0009312373306544149</v>
+      </c>
+      <c r="M142" t="n">
+        <v>7.111642635319002e-05</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.550536876006404e-05</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-9.660027632759091e-05</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.0003571527655937933</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>4563.331763137862</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.5541</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9992333422199291</v>
+      </c>
+      <c r="B143" t="n">
+        <v>39.49126245397444</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.709053576775125e-05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.001216153937617851</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.712416839691263e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.002979076860451783</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-6.612967079520691e-07</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0006723932578009778</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.1185961434882595</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-5.466871519623781e-05</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.001876837767075641</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.0006384227355383622</v>
+      </c>
+      <c r="M143" t="n">
+        <v>7.783915328624074e-05</v>
+      </c>
+      <c r="N143" t="n">
+        <v>6.857331684738573e-06</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-9.313257212200116e-05</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.0003442504750670317</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>4556.838596322516</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.5651</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9992000655028094</v>
+      </c>
+      <c r="B144" t="n">
+        <v>39.31870500961918</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.77900050954602e-05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.000753439710366978</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.826455415443757e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.003060318054122234</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4.586080262627525e-07</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.0007104388389980522</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.121231077762489</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-4.646553642548653e-05</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.001889476617742613</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.0006308675897514938</v>
+      </c>
+      <c r="M144" t="n">
+        <v>7.568138644097739e-05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-4.144293673070449e-07</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-8.277285813125884e-05</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.0003639015370580908</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>4550.267176364366</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.5761</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9991660084852656</v>
+      </c>
+      <c r="B145" t="n">
+        <v>39.14299794397941</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.44936689376878e-06</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.0004412414678282946</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.954721935231568e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.003130436969670909</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4.437480738805723e-07</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0007399201765239842</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.1233817468052848</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-1.180955588744944e-05</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.001909324319331371</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.0006026468422966993</v>
+      </c>
+      <c r="M145" t="n">
+        <v>6.796816771894948e-05</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-5.830086899597393e-06</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-7.333510619795291e-05</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.0003732183789024436</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>4543.607841111314</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.5871</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9991310909012727</v>
+      </c>
+      <c r="B146" t="n">
+        <v>38.96390889965473</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-1.125630711787734e-05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0001562071778911691</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.079990371006191e-06</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.003218140974372205</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.703083109479705e-06</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0007594723470653768</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.1262001236638255</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.799858654604459e-05</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.001936888697779307</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.0005698646407484322</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5.730822065251181e-05</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-9.318653403080366e-06</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-6.684759754608129e-05</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.0003684948588338812</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>4536.851443081605</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.5981</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9990949721935558</v>
+      </c>
+      <c r="B147" t="n">
+        <v>38.78127212889704</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-2.250631435893735e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.001264329051078814</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.174632363846033e-06</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.00330583331541681</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.912857033348527e-06</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0008029023261549767</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.1290986347211074</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5.274949157091266e-05</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.001960561988781868</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.0008815082500370019</v>
+      </c>
+      <c r="M147" t="n">
+        <v>4.574296318004832e-05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-1.168729057903457e-05</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-6.791681491155208e-05</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.000391279742708811</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>4529.987954605975</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.6091</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9990604803061575</v>
+      </c>
+      <c r="B148" t="n">
+        <v>38.60498306291327</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-4.554018862515806e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.002953736531947152</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.304373210400614e-06</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.003372282394507511</v>
+      </c>
+      <c r="G148" t="n">
+        <v>9.389968118908386e-07</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0008232955980371269</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.1310235818872708</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.321389466406122e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.001984266965753162</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0005390554702381862</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3.309671264623865e-05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-1.166248390813521e-05</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-6.255719916652333e-05</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.0003781784253141363</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>4523.389675166642</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.6195</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9990248535145053</v>
+      </c>
+      <c r="B149" t="n">
+        <v>38.42568505618622</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-6.824132113655866e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.005380918758195416</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.43301873167111e-06</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.003446521747792684</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.389487203904393e-07</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.000870709931075947</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.1332445539343093</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-9.314485712169059e-07</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.001998365141930716</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.000536667430148508</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2.22233955876779e-05</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-8.24558962405799e-06</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-8.466996394818065e-05</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.0003999488685589222</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>4516.70685132846</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9989886081011352</v>
+      </c>
+      <c r="B150" t="n">
+        <v>38.2429711727121</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-7.481053583941831e-05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.008748623046258232</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.567229264752752e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.003511237706398349</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.41433570075104e-07</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0009030803879590928</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.1350360913631209</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9.614055922963664e-06</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.002015161456541681</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.0005044694611469682</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.761152834091003e-05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-9.668909680093729e-07</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-0.0001246088641110458</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.0004034062713793573</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>4509.926953021928</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.6404</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9989516218036921</v>
+      </c>
+      <c r="B151" t="n">
+        <v>38.05652452095197</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-6.018007067073139e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.01317086825724058</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.700360549396571e-06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.003595421441061805</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.241126563841017e-06</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0009197643243804594</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.1375182286689854</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.602324082435123e-05</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.002036498764158035</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.0004770537769814951</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2.114233612651295e-05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.012135696198353e-05</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-0.0001695927390336146</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.0003869881662258405</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>4503.04264543212</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.6508</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9989134730822156</v>
+      </c>
+      <c r="B152" t="n">
+        <v>37.86611625116257</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-3.027676766927486e-05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.01867287846238685</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.818281098199031e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.003674936871488362</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.422244854699859e-06</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0009676835111685516</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.1398546621182586</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0001119084678805709</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.002051769082689931</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.0008645719351802043</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3.239671246013773e-05</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2.44664379494977e-05</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-0.0002153200338975063</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.0004063935098656738</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>4496.040042240208</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.6612</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9988772298188281</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37.68279879186893</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.262590938140915e-05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.02447030891081075</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.978554888121201e-06</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.003740708098268548</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2.58080877885277e-06</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0009926023638696664</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.1414576190612697</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0001252257058637993</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.002066897415561416</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.0004800164900215237</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5.074906399218361e-05</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3.798592385116068e-05</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-0.000247508802871103</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.0003881709597825003</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>4489.3262178375</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1.6711</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9988401057791537</v>
+      </c>
+      <c r="B154" t="n">
+        <v>37.49610713762437</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.244158398786725e-06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.03049980016190007</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.125995452936877e-06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.003809478057275542</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.208264029497764e-06</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.001041644257911427</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.1432314892054938</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0001172013515992685</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.002074581061120029</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.000486354237388814</v>
+      </c>
+      <c r="M154" t="n">
+        <v>7.21308705429025e-05</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4.958691599288595e-05</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-0.0002551675186802371</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.0004009069926395497</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>4482.520487755162</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.6809</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9988024172973283</v>
+      </c>
+      <c r="B155" t="n">
+        <v>37.30549837397597</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.01981835782722e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.03639406771282521</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.273698621744926e-06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.00386644176843252</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.586019203144708e-06</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.001070687296594451</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.1445128792728917</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0001047662751615672</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.002088206979720088</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.0004630327704209346</v>
+      </c>
+      <c r="M155" t="n">
+        <v>9.600187753306991e-05</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5.769237216988607e-05</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-0.0002535514700164354</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.0003949161150540999</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>4475.607266548663</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.6907</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9987640250544663</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37.11042819694479</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.215938942001704e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.04184833653367988</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.401284139775972e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.003949919766941864</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.675652693756429e-07</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.001078343833085545</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.1467238618628088</v>
+      </c>
+      <c r="J156" t="n">
+        <v>8.845342853520873e-05</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.002109220117548319</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.0004455426318944295</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.0001207938927994225</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6.282706985425504e-05</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-0.0002425774270894219</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.0003716889503132892</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>4468.57017219888</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.7006</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9987244665892673</v>
+      </c>
+      <c r="B157" t="n">
+        <v>36.91035848176178</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0001039185276240936</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.04662015689717189</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.460061367703102e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.004036424443871115</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-9.013908317351788e-07</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.001114130217101142</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.1490852296181631</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5.271229752298105e-05</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.002124662311717247</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.0008949623175310552</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.0001443799120428368</v>
+      </c>
+      <c r="N157" t="n">
+        <v>6.75438148012711e-05</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-0.0002156079375762846</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.0003908294750129994</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>4461.38919801444</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.7104</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9986871380862288</v>
+      </c>
+      <c r="B158" t="n">
+        <v>36.71794948177451</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0001595566031227322</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.05047930372130967</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.610638040564443e-06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.004109244660876046</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2.757842445304439e-06</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.001117370537050439</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.1506919180553963</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.533133090305591e-06</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.002139262550962555</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.0004506746412802352</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.0001657393502497388</v>
+      </c>
+      <c r="N158" t="n">
+        <v>7.007171479761732e-05</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-0.000203658285389322</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.0003693649899050344</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>4454.518082801165</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.7196</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9986487682031879</v>
+      </c>
+      <c r="B159" t="n">
+        <v>36.52148948419524</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0002137391949467461</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0536520070715626</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.747808101540248e-06</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.004188782514906547</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4.141496351292863e-06</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.001159172026939125</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.1526376412618329</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-3.442298302883201e-05</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.002139194991336366</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.0004569558771878862</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.0001842522785590019</v>
+      </c>
+      <c r="N159" t="n">
+        <v>7.151492521496643e-05</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-0.0001907494640538085</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.0003949342475686003</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>4447.539044072765</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.7289</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9986098360279784</v>
+      </c>
+      <c r="B160" t="n">
+        <v>36.32050053988457</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.000253652136685555</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.05609156393632626</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.9012419829654e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.004256822371287697</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-5.330886913814358e-06</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.001181712565978075</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.1540888859426161</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-6.773847613976156e-05</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.002140534441291136</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.0004322733312360968</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.0001971438863148658</v>
+      </c>
+      <c r="N160" t="n">
+        <v>6.902192016342338e-05</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-0.0001716300572802049</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.0003985772811550981</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>4440.438856555536</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.7381</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9985701103657837</v>
+      </c>
+      <c r="B161" t="n">
+        <v>36.1145061967282</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0002718839452351612</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.05780362954026041</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.038157220354604e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.004356956801112258</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6.315426554780134e-06</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.001181412463197295</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.1566265170119379</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.0001000216500794142</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.002145773043117507</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.0003989553941738571</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.0002038635532119946</v>
+      </c>
+      <c r="N161" t="n">
+        <v>6.176191664463332e-05</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-0.0001453359088964297</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0.0003736551293445499</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>4433.206561942704</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.7473</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9985291228786839</v>
+      </c>
+      <c r="B162" t="n">
+        <v>35.90304985810113</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0002663415339279628</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.05884582221984777</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.071112349233029e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.004467947601335857</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-6.700777146647321e-06</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.001223187754568473</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.1596722109547198</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.000117334415206669</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.002139328576814904</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.0009207346018979906</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.0002060002711111748</v>
+      </c>
+      <c r="N162" t="n">
+        <v>5.071715573927088e-05</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-0.0001144361003526171</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.0003877693448291783</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>4425.824039955122</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.7565</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9984903064442152</v>
+      </c>
+      <c r="B163" t="n">
+        <v>35.70018833053039</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0002281138759889924</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.05922601591335089</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.218236594961874e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.004590272434353859</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-6.814663894782707e-06</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.001226619176715001</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.1627053543330912</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.0001293739212684261</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.002134946201537795</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.0003982253487933643</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.0002047731755716963</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3.672655740735803e-05</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-9.162826732981693e-05</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.0003351387554714752</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>4418.781856485951</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.7652</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9984500247964683</v>
+      </c>
+      <c r="B164" t="n">
+        <v>35.49218420734115</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0001721364360671568</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0591703118737976</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.331639618911392e-06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.004728325487329436</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-6.092329833433665e-06</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.001289452587699176</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.1664102135331066</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.0001093013756816241</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.002113740488476092</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.0004198527879886433</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.0001966154931673228</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2.367381614930914e-05</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-7.464059378870766e-05</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0.0003349744199485278</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>4411.601533884829</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.7738</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9984086628540305</v>
+      </c>
+      <c r="B165" t="n">
+        <v>35.27813268419779</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0001117296652620113</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.05900807873628151</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.437685469667899e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.00485885314040821</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5.214916095588233e-06</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.001330417676448658</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.1696997940794251</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-8.23016267842469e-05</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.002099426361974289</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.0003996477976089711</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.000185183905380754</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.357716784077227e-05</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-7.21925737363675e-05</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0.0003087004021743094</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>4404.260879498374</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.7825</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9983659924320607</v>
+      </c>
+      <c r="B166" t="n">
+        <v>35.05724463778363</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.42605532303891e-05</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.05896149620793201</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.507933191848699e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.005023430902419447</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4.488533768848178e-06</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.001341056551016854</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.1740745658627323</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-6.013285142822568e-05</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.002095125529293914</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.0003661905105839194</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.000172729967556527</v>
+      </c>
+      <c r="N166" t="n">
+        <v>6.079138889932028e-06</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-8.631398931863062e-05</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0.0002502728256384333</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>4396.738675235741</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.7911</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.998321595287238</v>
+      </c>
+      <c r="B167" t="n">
+        <v>34.82884315397698</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.183278342943982e-06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0591454622469964</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.470694394314728e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.005193645947282422</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3.971921264933066e-06</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.001405713115255802</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.1789056816082508</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-4.558482186839099e-05</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.002076913256117099</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.001013330561796884</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.00016021118589673</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-1.495112379684572e-06</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-0.0001085120936781229</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0.0002417833697978252</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>4389.012452843031</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.7997</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.998279456341016</v>
+      </c>
+      <c r="B168" t="n">
+        <v>34.60875555014078</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-5.317764240403179e-05</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.05946153296785218</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.57047664500172e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.005361959189026489</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3.209067800108931e-06</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.001419883469884418</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.1829137825841838</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-2.511625396297581e-05</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.00206568790982574</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.0003998188455658118</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.0001480426497864589</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-9.338959441299098e-06</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-0.0001298045717172948</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0.0001539499900386519</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>4381.61606862029</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.8078</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9982355548388947</v>
+      </c>
+      <c r="B169" t="n">
+        <v>34.38140302303508</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-9.74375359843418e-05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0598357323090218</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.632736094357011e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.005538427747678019</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3.140326946353053e-06</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.001512819774177751</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.1873887822656678</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-3.03728146901955e-05</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.002024886355683599</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.0004324382468808766</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.000141669699936902</v>
+      </c>
+      <c r="N169" t="n">
+        <v>-1.988387227698866e-05</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-0.0001534747330814668</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.0001252936226428703</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>4374.02580911613</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.8158</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9981903288040362</v>
+      </c>
+      <c r="B170" t="n">
+        <v>34.14570926339997</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.0001295109404948467</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.06018794544136837</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.659037235886639e-06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.00571135709494324</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3.267160557011813e-06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.001575570183996722</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.1914875413274471</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-4.243174915649016e-05</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.001983641297428621</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.0004000797069125291</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.0001387472445102817</v>
+      </c>
+      <c r="N170" t="n">
+        <v>-3.342115921006861e-05</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-0.0001711328707911857</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5.156123071226541e-05</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>4366.216577305109</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.8239</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9981434846921224</v>
+      </c>
+      <c r="B171" t="n">
+        <v>33.90041028042146</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.0001522622728043096</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.06043963859673807</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.608089013326311e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.005939039713048962</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3.490863986068113e-06</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.001596937303331295</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.1972307634668552</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-5.792164528246011e-05</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.001945311489551083</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.0003531768262384777</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.0001372061668501478</v>
+      </c>
+      <c r="N171" t="n">
+        <v>-4.874926473179602e-05</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-0.0001940841281692657</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-7.904048084910783e-05</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>4358.1558051343</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.8319</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9980944035947713</v>
+      </c>
+      <c r="B172" t="n">
+        <v>33.644043727465</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.0001731326826731288</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.06051383849150904</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.418314875569102e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.006200142854890493</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4.132176240925638e-06</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.001693414937709243</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.2045093851925111</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-9.043138253969899e-05</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.001878089311279287</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.001147291559883184</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.000135751454068512</v>
+      </c>
+      <c r="N172" t="n">
+        <v>-6.294490580425681e-05</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-0.0002369104092171833</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-0.0001644119594285106</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>4349.800876220361</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9980474171539963</v>
+      </c>
+      <c r="B173" t="n">
+        <v>33.39477768381557</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.0002081638246919941</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.06042466407425006</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.380772833264677e-06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.006474047549019608</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4.535351051427588e-06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.001721695416458995</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.2109584195715324</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.0001146013251872873</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.001827045762432475</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.0004053667024762148</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.0001276124717734093</v>
+      </c>
+      <c r="N173" t="n">
+        <v>-7.338413156527506e-05</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-0.0002571547543089637</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-0.0003520222456292044</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>4341.741839839689</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.8474</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9979978474372204</v>
+      </c>
+      <c r="B174" t="n">
+        <v>33.13356058651531</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.0002630190085465801</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.06044669856707229</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.364837579338235e-06</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.00678104055584222</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-5.306193397976144e-06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.00186522352435233</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.2188836897527042</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.000153924684475691</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.001738273941975627</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.0004678667349830549</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.0001208011707755227</v>
+      </c>
+      <c r="N174" t="n">
+        <v>-7.996374464942538e-05</v>
+      </c>
+      <c r="O174" t="n">
+        <v>-0.0002668182003235007</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-0.0004805006847216648</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>4333.365154710983</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.8549</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.997946020238505</v>
+      </c>
+      <c r="B175" t="n">
+        <v>32.8579184264674</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.0003458584909820172</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.06078950790475178</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.285638433675468e-06</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.007112379916294002</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-6.945188813610828e-06</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.001973726190532487</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.2271842856960848</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.0002241725963001185</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.001661354546023352</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.0004328851012521659</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.0001092520837729889</v>
+      </c>
+      <c r="N175" t="n">
+        <v>-8.540936137996805e-05</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-0.0002682815541546985</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-0.0006843907751685745</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>4324.60362564667</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.8624</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9978913920421969</v>
+      </c>
+      <c r="B176" t="n">
+        <v>32.56466520786351</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.0004488347367361977</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.06154884524357155</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.072512306555585e-06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.007538949511237245</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-9.259550770476438e-06</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.002029053172765682</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.2381854339461581</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.0003149592191748205</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.00160591971841379</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.0003895401055896686</v>
+      </c>
+      <c r="M176" t="n">
+        <v>9.240469171242945e-05</v>
+      </c>
+      <c r="N176" t="n">
+        <v>-9.080705072210753e-05</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-0.0002875162334687026</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-0.0009771299285406714</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>4315.369752635369</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.8698</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.997832860265451</v>
+      </c>
+      <c r="B177" t="n">
+        <v>32.24991421568627</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.0005473320709935872</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.06270677379924694</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.71511270374742e-06</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.008034045986698773</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1.11967266622592e-05</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.002195142186175464</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.252174611729032</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.0003845449457284621</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.001526634257050721</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.00148995108408181</v>
+      </c>
+      <c r="M177" t="n">
+        <v>7.522778773278738e-05</v>
+      </c>
+      <c r="N177" t="n">
+        <v>-9.548438370538907e-05</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-0.0003578125433672434</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-0.001221393924575418</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>4305.555223095706</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.8773</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9977759277892443</v>
+      </c>
+      <c r="B178" t="n">
+        <v>31.93576208927366</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.000618527125802182</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.06416584794287257</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.513640984460068e-06</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.008551021707659673</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1.250795613881723e-05</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.00225211838420293</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.2644144845933825</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.0004205839052693691</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.001484259516810715</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.0005260998118579053</v>
+      </c>
+      <c r="M178" t="n">
+        <v>6.415587296746996e-05</v>
+      </c>
+      <c r="N178" t="n">
+        <v>-9.673305489777229e-05</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-0.0004904700211676954</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-0.001606013146145399</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>4295.854267606979</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.8842</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9977148196881093</v>
+      </c>
+      <c r="B179" t="n">
+        <v>31.59585158429844</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.0006351831174774499</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.06589518846251542</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.451302628636337e-06</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.009128310288384359</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1.281413650587663e-05</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0024771869377171</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.2792000092369631</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.0004124282119970631</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.00138279898336665</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.0006693572972771661</v>
+      </c>
+      <c r="M179" t="n">
+        <v>6.34215892379824e-05</v>
+      </c>
+      <c r="N179" t="n">
+        <v>-9.977898222771661e-05</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-0.0006782211485793392</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-0.001950501400806483</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>4285.469422448877</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.8911</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9976495179738563</v>
+      </c>
+      <c r="B180" t="n">
+        <v>31.22434118156684</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.000588631098701809</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.06769853263059951</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.26570339948988e-06</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.009787885646714824</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1.277214896290563e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.002639781200143173</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.2956172724044134</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.0003859774463053739</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.001304832879609722</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.0006810740832537838</v>
+      </c>
+      <c r="M180" t="n">
+        <v>6.808127711887176e-05</v>
+      </c>
+      <c r="N180" t="n">
+        <v>-0.0001054452449415364</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-0.0008865644385030547</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-0.002429751883529228</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>4274.254006828634</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1.898</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9975790466976265</v>
+      </c>
+      <c r="B181" t="n">
+        <v>30.81289503943227</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.0004722828389694735</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.06944412017052547</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.87173088578073e-06</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.01064930856839812</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1.24750673546884e-05</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.00270307733041931</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.3174057223782951</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.0003519103658328714</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.001269649905851966</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.0006784331617724139</v>
+      </c>
+      <c r="M181" t="n">
+        <v>7.625323438582156e-05</v>
+      </c>
+      <c r="N181" t="n">
+        <v>-0.0001123136954080309</v>
+      </c>
+      <c r="O181" t="n">
+        <v>-0.001090695289969056</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-0.003062842745407398</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>4261.990843666835</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9975015105062491</v>
+      </c>
+      <c r="B182" t="n">
+        <v>30.35069076160354</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.0002789677435237737</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.07106473070627972</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.426903855538355e-06</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.01171718835640981</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1.141551455557821e-05</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.002903732785937459</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.3471662350377123</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.0003059476795988131</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.001211887265731211</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.00233772002047736</v>
+      </c>
+      <c r="M182" t="n">
+        <v>8.91765836744918e-05</v>
+      </c>
+      <c r="N182" t="n">
+        <v>-0.0001165912237295194</v>
+      </c>
+      <c r="O182" t="n">
+        <v>-0.001265510263744482</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-0.003666259873386115</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>4248.398928447386</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.9119</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9974234343825251</v>
+      </c>
+      <c r="B183" t="n">
+        <v>29.86822576252723</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-4.978982235329154e-05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.07241979471059719</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.064459070093739e-06</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.01291348367733058</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-9.683127341517609e-06</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.002947086332658246</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.3753923150855534</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.0002312520111098371</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.001217439194412035</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.001007948204742695</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.0001096279036803167</v>
+      </c>
+      <c r="N183" t="n">
+        <v>-0.0001150410712851466</v>
+      </c>
+      <c r="O183" t="n">
+        <v>-0.001417974748899655</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-0.004481450156737886</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>4234.390229680999</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.9182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9973366186503843</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29.31892680821516</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0002476119685959185</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.07358659132919182</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.156845016878799e-06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.01435745770267171</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-7.167412382711272e-06</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.003210508643440323</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.4119227534272319</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.0001358657675646428</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.001150967154319077</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.001264550664599864</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.0001400240291700907</v>
+      </c>
+      <c r="N184" t="n">
+        <v>-0.0001064830636779536</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-0.001579287537668447</v>
+      </c>
+      <c r="P184" t="n">
+        <v>-0.005250603733678047</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>4218.670482460219</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1.9246</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9972396056931544</v>
+      </c>
+      <c r="B185" t="n">
+        <v>28.68480133362636</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0006003507874749964</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.07449315560152854</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.073584760633958e-06</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.01613277690345144</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4.595342894923178e-06</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.003345375072083747</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.4554051069258113</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-3.262926614286723e-05</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.001128469370346959</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.001258442994034068</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.0001679249643311873</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-9.603964422830907e-05</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-0.001769690279443799</v>
+      </c>
+      <c r="P185" t="n">
+        <v>-0.006192892911813439</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>4200.829973522644</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9971296872491686</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.93964902725222</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.001022570605291028</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0750485188633041</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.710394413584165e-06</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.01843807130776287</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2.58147231249284e-06</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.00329483721845257</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.5107212536947853</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5.752430374200529e-05</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.001162167461633039</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.001087450452688194</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.0001846845858034804</v>
+      </c>
+      <c r="N186" t="n">
+        <v>-8.505855230612331e-05</v>
+      </c>
+      <c r="O186" t="n">
+        <v>-0.002018183485786623</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-0.007320321482069781</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>4180.297249735036</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.9374</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9970029717062263</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.04909338808623</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.00158694549093814</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.0751422688743128</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.56939846045981e-06</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.02146452425180598</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1.599217469868707e-06</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.003391555189805458</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.587217286976519</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0001057072892411675</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.001139695826963133</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.003359871645088285</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.0001856451202762688</v>
+      </c>
+      <c r="N187" t="n">
+        <v>-7.066091004653916e-05</v>
+      </c>
+      <c r="O187" t="n">
+        <v>-0.002348300321202023</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-0.008344513084464501</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>4156.364024309814</v>
+      </c>
+      <c r="R187" t="n">
+        <v>1.9438</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9968682271241829</v>
+      </c>
+      <c r="B188" t="n">
+        <v>26.06280864993821</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.00212353168508326</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.07449469776009855</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.248250474071351e-06</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.02469004050567596</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-7.605829764505209e-07</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.003322035044823566</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.654114060250481</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0001598198731620833</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.001144724387683704</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.0008283781788907684</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.0001826151194060712</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-5.133396522018213e-05</v>
+      </c>
+      <c r="O188" t="n">
+        <v>-0.002636055204538534</v>
+      </c>
+      <c r="P188" t="n">
+        <v>-0.009613162516673993</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>4130.527915023242</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1.9496</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9967119533310398</v>
+      </c>
+      <c r="B189" t="n">
+        <v>24.86668369134528</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.002854674291462099</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.07269493900389704</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.722435873005533e-06</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.02868931811145511</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1.130531450808408e-07</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.003477649900956822</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.7375413006918167</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0002119252223822765</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.001034989609793172</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.0001654689510065901</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.0001678576655730819</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-2.438379416576686e-05</v>
+      </c>
+      <c r="O189" t="n">
+        <v>-0.00287496222631993</v>
+      </c>
+      <c r="P189" t="n">
+        <v>-0.0106271498758623</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>4100.279926817268</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.9555</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9965301826052059</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23.3900322338162</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.003551740623192023</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.06922967111084037</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.841653553352827e-06</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.03340303624871001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5.873559787008348e-07</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.003392564675197886</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.8224623799991081</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.0002402539929695562</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.0009172325417877823</v>
+      </c>
+      <c r="L190" t="n">
+        <v>-0.001116256157098765</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.0001375448275403257</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1.238583844320546e-06</v>
+      </c>
+      <c r="O190" t="n">
+        <v>-0.003060344288028975</v>
+      </c>
+      <c r="P190" t="n">
+        <v>-0.01153597990499385</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>4064.464099689594</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1.9614</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9963187401100793</v>
+      </c>
+      <c r="B191" t="n">
+        <v>21.53433422995579</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.004076496823196562</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.06376959185943595</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.457034410884646e-06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.03877932772904483</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2.607243205309022e-06</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.003034665408915819</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.8985167791824332</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.0002331099653486476</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.0008119998070000256</v>
+      </c>
+      <c r="L191" t="n">
+        <v>-0.00291223377092204</v>
+      </c>
+      <c r="M191" t="n">
+        <v>9.520526696998385e-05</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2.070747148668922e-05</v>
+      </c>
+      <c r="O191" t="n">
+        <v>-0.003190593375524755</v>
+      </c>
+      <c r="P191" t="n">
+        <v>-0.01212833796105585</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>4022.022036444361</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1.9672</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9960729831728015</v>
+      </c>
+      <c r="B192" t="n">
+        <v>19.17323952241715</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.004114844671287936</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.0561695423909238</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.262632887591016e-06</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.04321263096978558</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5.939668367518776e-06</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.002919238027496991</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.9229075664663201</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0001989582426642586</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.0007139719957562047</v>
+      </c>
+      <c r="L192" t="n">
+        <v>-0.003231949446629861</v>
+      </c>
+      <c r="M192" t="n">
+        <v>5.348644288796837e-05</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3.47261851061104e-05</v>
+      </c>
+      <c r="O192" t="n">
+        <v>-0.003179383169362228</v>
+      </c>
+      <c r="P192" t="n">
+        <v>-0.01185767312372108</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>3971.974542105777</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1.9731</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9958304123667011</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16.44464223489916</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.00435759312022863</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.04735677174366392</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.949202700880633e-06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.04701036030845086</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1.048611490134446e-05</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.002271631551866957</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.8885183870510517</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0001138346169670272</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.0004013626106884563</v>
+      </c>
+      <c r="L193" t="n">
+        <v>-0.00591526173666294</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2.458138761516773e-05</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3.530402613257112e-05</v>
+      </c>
+      <c r="O193" t="n">
+        <v>-0.00284269821398761</v>
+      </c>
+      <c r="P193" t="n">
+        <v>-0.01011141568325498</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>3920.451226429324</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.9785</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9955785268317854</v>
+      </c>
+      <c r="B194" t="n">
+        <v>13.07779176062888</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.003258886237112764</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.03699185982449307</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.402435644872434e-06</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-0.0454206408955395</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1.344440531620514e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.001834652476456494</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.7117146547605396</v>
+      </c>
+      <c r="J194" t="n">
+        <v>6.868591101858224e-05</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.0002970725016867013</v>
+      </c>
+      <c r="L194" t="n">
+        <v>-0.005713056480779951</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1.717523321951325e-05</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3.20954945863433e-05</v>
+      </c>
+      <c r="O194" t="n">
+        <v>-0.002121069660432911</v>
+      </c>
+      <c r="P194" t="n">
+        <v>-0.007229959738896532</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>3865.824393094207</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1.9839</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9953541162137368</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9.092561808024053</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.001983527973645113</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0253651141586759</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.442986644536175e-07</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.03674473470645569</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1.329577496812292e-05</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.001089506440374599</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.4181848739154531</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5.371801852273887e-05</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.0002046561936086586</v>
+      </c>
+      <c r="L195" t="n">
+        <v>-0.003459818898746958</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.394131070279832e-05</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2.112208398404713e-05</v>
+      </c>
+      <c r="O195" t="n">
+        <v>-0.00117205330007466</v>
+      </c>
+      <c r="P195" t="n">
+        <v>-0.003845541307779761</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>3815.917656970782</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.9892</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9951959117360395</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.639577160493827</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0009348721582357083</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.01286936218707247</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-1.552080724187307e-07</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.02083758326166724</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1.104664553392673e-05</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.0002092399466169224</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.1250937258007492</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3.968561143834646e-05</v>
+      </c>
+      <c r="K196" t="n">
+        <v>6.330527243865381e-05</v>
+      </c>
+      <c r="L196" t="n">
+        <v>-0.0006186080279641095</v>
+      </c>
+      <c r="M196" t="n">
+        <v>6.729179251309658e-06</v>
+      </c>
+      <c r="N196" t="n">
+        <v>6.751519746782272e-06</v>
+      </c>
+      <c r="O196" t="n">
+        <v>-0.0003301576882538875</v>
+      </c>
+      <c r="P196" t="n">
+        <v>-0.001056001276458644</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>3779.719826453466</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.9946</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9951430233058135</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.0002118780269380343</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.0005405506543111136</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.042566279200748e-07</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-8.804620891755533e-07</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.002445871960147919</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1.0110745267111e-05</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.0001226738552657952</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.002831058645697247</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-1.313983629748277e-05</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1.696752459827707e-05</v>
+      </c>
+      <c r="L197" t="n">
+        <v>-0.0004008335188035903</v>
+      </c>
+      <c r="M197" t="n">
+        <v>-1.74566027585848e-06</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2.730872487795288e-06</v>
+      </c>
+      <c r="O197" t="n">
+        <v>-2.769724349887404e-05</v>
+      </c>
+      <c r="P197" t="n">
+        <v>-0.0005137205720438532</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>3767.243228426065</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
